--- a/medicine/Pharmacie/Indice_de_Carr/Indice_de_Carr.xlsx
+++ b/medicine/Pharmacie/Indice_de_Carr/Indice_de_Carr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L' indice de Carr (Carr's index[1] ou Carr's Compressibility Index[2] en anglais) est une grandeur physique sans dimension qui caractérise l'aptitude à la compressibilité d'une  poudre ou d'un matériau granulaire.
-Cet indice a été défini par le pharmacien Charles Jelleff Carr (1910–2005)[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L' indice de Carr (Carr's index ou Carr's Compressibility Index en anglais) est une grandeur physique sans dimension qui caractérise l'aptitude à la compressibilité d'une  poudre ou d'un matériau granulaire.
+Cet indice a été défini par le pharmacien Charles Jelleff Carr (1910–2005),.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Détermination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice de Carr est déterminé par la formule 
         C
@@ -598,9 +612,11 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un indice de Carr supérieur à 25 est considéré comme une indication de mauvaise coulabilité tandis qu'un indice inférieur à 15 est une indication de bonne coulabilité[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un indice de Carr supérieur à 25 est considéré comme une indication de mauvaise coulabilité tandis qu'un indice inférieur à 15 est une indication de bonne coulabilité.
 </t>
         </is>
       </c>
@@ -629,7 +645,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice de Carr  est généralement utilisée en pharmacie galénique, en agroalimentaire, en bâtiment et travaux publics et en métallurgie des poudres.
 </t>
